--- a/Houses Prices/Bad Features Prediction/NN_test_set_prediction_8222_bad_features_with_correlation.xlsx
+++ b/Houses Prices/Bad Features Prediction/NN_test_set_prediction_8222_bad_features_with_correlation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Data Science\Deconstructing Neural Networks\Houses Prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Data Science\Deconstructing Neural Networks\Houses Prices\Bad Features Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8A3676F5-BCCF-4510-B163-22F148100C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B54996-49DB-45AD-B918-5F3F49B52E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="180" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NN_test_set_prediction_8222_bad" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NN_test_set_prediction_8222_bad!$A$1:$Q$106</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -163,9 +173,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -680,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,12 +1053,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,19 +1164,19 @@
         <v>0.33281379938125599</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM(E2:H2)</f>
+        <f t="shared" ref="N2:N33" si="0">SUM(E2:H2)</f>
         <v>-0.76777390355799646</v>
       </c>
       <c r="O2" s="4">
-        <f>ABS(E2)+ABS(F2)+ABS(G2)+ABS(H2)</f>
+        <f t="shared" ref="O2:O33" si="1">ABS(E2)+ABS(F2)+ABS(G2)+ABS(H2)</f>
         <v>0.79373402374709756</v>
       </c>
       <c r="P2" s="4">
-        <f>MIN(I2:M2)</f>
+        <f t="shared" ref="P2:P33" si="2">MIN(I2:M2)</f>
         <v>0.32448846101760798</v>
       </c>
       <c r="Q2" s="4">
-        <f>AVERAGE(I2:M2)</f>
+        <f t="shared" ref="Q2:Q33" si="3">AVERAGE(I2:M2)</f>
         <v>0.35713901519775337</v>
       </c>
     </row>
@@ -1211,19 +1221,19 @@
         <v>0.39763918519019997</v>
       </c>
       <c r="N3" s="4">
-        <f>SUM(E3:H3)</f>
+        <f t="shared" si="0"/>
         <v>-0.52969774111212597</v>
       </c>
       <c r="O3" s="4">
-        <f>ABS(E3)+ABS(F3)+ABS(G3)+ABS(H3)</f>
+        <f t="shared" si="1"/>
         <v>0.52969774111212597</v>
       </c>
       <c r="P3" s="4">
-        <f>MIN(I3:M3)</f>
+        <f t="shared" si="2"/>
         <v>0.34588780999183599</v>
       </c>
       <c r="Q3" s="4">
-        <f>AVERAGE(I3:M3)</f>
+        <f t="shared" si="3"/>
         <v>0.36712692379951439</v>
       </c>
     </row>
@@ -1268,19 +1278,19 @@
         <v>0.37716922163963301</v>
       </c>
       <c r="N4" s="4">
-        <f>SUM(E4:H4)</f>
+        <f t="shared" si="0"/>
         <v>-0.51011745969931777</v>
       </c>
       <c r="O4" s="4">
-        <f>ABS(E4)+ABS(F4)+ABS(G4)+ABS(H4)</f>
+        <f t="shared" si="1"/>
         <v>0.53607757988841898</v>
       </c>
       <c r="P4" s="4">
-        <f>MIN(I4:M4)</f>
+        <f t="shared" si="2"/>
         <v>0.34179335832595797</v>
       </c>
       <c r="Q4" s="4">
-        <f>AVERAGE(I4:M4)</f>
+        <f t="shared" si="3"/>
         <v>0.36919679045677156</v>
       </c>
     </row>
@@ -1325,19 +1335,19 @@
         <v>0.369375109672546</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM(E5:H5)</f>
+        <f t="shared" si="0"/>
         <v>-0.47353476380257331</v>
       </c>
       <c r="O5" s="4">
-        <f>ABS(E5)+ABS(F5)+ABS(G5)+ABS(H5)</f>
+        <f t="shared" si="1"/>
         <v>0.56384423163270991</v>
       </c>
       <c r="P5" s="4">
-        <f>MIN(I5:M5)</f>
+        <f t="shared" si="2"/>
         <v>0.34025928378105103</v>
       </c>
       <c r="Q5" s="4">
-        <f>AVERAGE(I5:M5)</f>
+        <f t="shared" si="3"/>
         <v>0.37229821681976255</v>
       </c>
     </row>
@@ -1382,19 +1392,19 @@
         <v>0.389185011386871</v>
       </c>
       <c r="N6" s="4">
-        <f>SUM(E6:H6)</f>
+        <f t="shared" si="0"/>
         <v>-0.5893761909522458</v>
       </c>
       <c r="O6" s="4">
-        <f>ABS(E6)+ABS(F6)+ABS(G6)+ABS(H6)</f>
+        <f t="shared" si="1"/>
         <v>0.59178616739742129</v>
       </c>
       <c r="P6" s="4">
-        <f>MIN(I6:M6)</f>
+        <f t="shared" si="2"/>
         <v>0.344705700874328</v>
       </c>
       <c r="Q6" s="4">
-        <f>AVERAGE(I6:M6)</f>
+        <f t="shared" si="3"/>
         <v>0.37858359813690157</v>
       </c>
     </row>
@@ -1439,19 +1449,19 @@
         <v>0.333233892917633</v>
       </c>
       <c r="N7" s="4">
-        <f>SUM(E7:H7)</f>
+        <f t="shared" si="0"/>
         <v>-0.34519645865153981</v>
       </c>
       <c r="O7" s="4">
-        <f>ABS(E7)+ABS(F7)+ABS(G7)+ABS(H7)</f>
+        <f t="shared" si="1"/>
         <v>0.67247576633913297</v>
       </c>
       <c r="P7" s="4">
-        <f>MIN(I7:M7)</f>
+        <f t="shared" si="2"/>
         <v>0.333233892917633</v>
       </c>
       <c r="Q7" s="4">
-        <f>AVERAGE(I7:M7)</f>
+        <f t="shared" si="3"/>
         <v>0.38388608098030058</v>
       </c>
     </row>
@@ -1496,19 +1506,19 @@
         <v>0.36205160617828303</v>
       </c>
       <c r="N8" s="4">
-        <f>SUM(E8:H8)</f>
+        <f t="shared" si="0"/>
         <v>0.4111115501466992</v>
       </c>
       <c r="O8" s="4">
-        <f>ABS(E8)+ABS(F8)+ABS(G8)+ABS(H8)</f>
+        <f t="shared" si="1"/>
         <v>0.43828083662334394</v>
       </c>
       <c r="P8" s="4">
-        <f>MIN(I8:M8)</f>
+        <f t="shared" si="2"/>
         <v>0.36137875914573597</v>
       </c>
       <c r="Q8" s="4">
-        <f>AVERAGE(I8:M8)</f>
+        <f t="shared" si="3"/>
         <v>0.38435562252998301</v>
       </c>
     </row>
@@ -1553,19 +1563,19 @@
         <v>0.35402256250381398</v>
       </c>
       <c r="N9" s="4">
-        <f>SUM(E9:H9)</f>
+        <f t="shared" si="0"/>
         <v>-2.6772285968793334E-2</v>
       </c>
       <c r="O9" s="4">
-        <f>ABS(E9)+ABS(F9)+ABS(G9)+ABS(H9)</f>
+        <f t="shared" si="1"/>
         <v>5.2732406157894526E-2</v>
       </c>
       <c r="P9" s="4">
-        <f>MIN(I9:M9)</f>
+        <f t="shared" si="2"/>
         <v>0.35045900940894997</v>
       </c>
       <c r="Q9" s="4">
-        <f>AVERAGE(I9:M9)</f>
+        <f t="shared" si="3"/>
         <v>0.38515971899032519</v>
       </c>
     </row>
@@ -1610,19 +1620,19 @@
         <v>0.35725623369216902</v>
       </c>
       <c r="N10" s="4">
-        <f>SUM(E10:H10)</f>
+        <f t="shared" si="0"/>
         <v>-0.52228483370336798</v>
       </c>
       <c r="O10" s="4">
-        <f>ABS(E10)+ABS(F10)+ABS(G10)+ABS(H10)</f>
+        <f t="shared" si="1"/>
         <v>0.61537255357593301</v>
       </c>
       <c r="P10" s="4">
-        <f>MIN(I10:M10)</f>
+        <f t="shared" si="2"/>
         <v>0.34657514095306302</v>
       </c>
       <c r="Q10" s="4">
-        <f>AVERAGE(I10:M10)</f>
+        <f t="shared" si="3"/>
         <v>0.3900501728057858</v>
       </c>
     </row>
@@ -1667,19 +1677,19 @@
         <v>0.39546501636505099</v>
       </c>
       <c r="N11" s="4">
-        <f>SUM(E11:H11)</f>
+        <f t="shared" si="0"/>
         <v>-0.17439386642287141</v>
       </c>
       <c r="O11" s="4">
-        <f>ABS(E11)+ABS(F11)+ABS(G11)+ABS(H11)</f>
+        <f t="shared" si="1"/>
         <v>0.26748158629543639</v>
       </c>
       <c r="P11" s="4">
-        <f>MIN(I11:M11)</f>
+        <f t="shared" si="2"/>
         <v>0.32721906900405801</v>
       </c>
       <c r="Q11" s="4">
-        <f>AVERAGE(I11:M11)</f>
+        <f t="shared" si="3"/>
         <v>0.39164478182792617</v>
       </c>
     </row>
@@ -1724,19 +1734,19 @@
         <v>0.33900547027587802</v>
       </c>
       <c r="N12" s="4">
-        <f>SUM(E12:H12)</f>
+        <f t="shared" si="0"/>
         <v>-0.55048627560315055</v>
       </c>
       <c r="O12" s="4">
-        <f>ABS(E12)+ABS(F12)+ABS(G12)+ABS(H12)</f>
+        <f t="shared" si="1"/>
         <v>0.55048627560315055</v>
       </c>
       <c r="P12" s="4">
-        <f>MIN(I12:M12)</f>
+        <f t="shared" si="2"/>
         <v>0.33900547027587802</v>
       </c>
       <c r="Q12" s="4">
-        <f>AVERAGE(I12:M12)</f>
+        <f t="shared" si="3"/>
         <v>0.39263705015182443</v>
       </c>
     </row>
@@ -1781,19 +1791,19 @@
         <v>0.37918046116828902</v>
       </c>
       <c r="N13" s="4">
-        <f>SUM(E13:H13)</f>
+        <f t="shared" si="0"/>
         <v>0.10239938289724569</v>
       </c>
       <c r="O13" s="4">
-        <f>ABS(E13)+ABS(F13)+ABS(G13)+ABS(H13)</f>
+        <f t="shared" si="1"/>
         <v>0.41889459838647525</v>
       </c>
       <c r="P13" s="4">
-        <f>MIN(I13:M13)</f>
+        <f t="shared" si="2"/>
         <v>0.35663655400276101</v>
       </c>
       <c r="Q13" s="4">
-        <f>AVERAGE(I13:M13)</f>
+        <f t="shared" si="3"/>
         <v>0.39394328594207723</v>
       </c>
     </row>
@@ -1838,19 +1848,19 @@
         <v>0.39514955878257702</v>
       </c>
       <c r="N14" s="4">
-        <f>SUM(E14:H14)</f>
+        <f t="shared" si="0"/>
         <v>1.8616214056006705E-2</v>
       </c>
       <c r="O14" s="4">
-        <f>ABS(E14)+ABS(F14)+ABS(G14)+ABS(H14)</f>
+        <f t="shared" si="1"/>
         <v>0.22076360224662528</v>
       </c>
       <c r="P14" s="4">
-        <f>MIN(I14:M14)</f>
+        <f t="shared" si="2"/>
         <v>0.361143767833709</v>
       </c>
       <c r="Q14" s="4">
-        <f>AVERAGE(I14:M14)</f>
+        <f t="shared" si="3"/>
         <v>0.39682409167289678</v>
       </c>
     </row>
@@ -1895,19 +1905,19 @@
         <v>0.38566219806671098</v>
       </c>
       <c r="N15" s="4">
-        <f>SUM(E15:H15)</f>
+        <f t="shared" si="0"/>
         <v>-0.40047943755673154</v>
       </c>
       <c r="O15" s="4">
-        <f>ABS(E15)+ABS(F15)+ABS(G15)+ABS(H15)</f>
+        <f t="shared" si="1"/>
         <v>0.6398592538593636</v>
       </c>
       <c r="P15" s="4">
-        <f>MIN(I15:M15)</f>
+        <f t="shared" si="2"/>
         <v>0.33644038438796903</v>
       </c>
       <c r="Q15" s="4">
-        <f>AVERAGE(I15:M15)</f>
+        <f t="shared" si="3"/>
         <v>0.4005951583385462</v>
       </c>
     </row>
@@ -1952,19 +1962,19 @@
         <v>0.40673345327377303</v>
       </c>
       <c r="N16" s="4">
-        <f>SUM(E16:H16)</f>
+        <f t="shared" si="0"/>
         <v>-0.18072627264085039</v>
       </c>
       <c r="O16" s="4">
-        <f>ABS(E16)+ABS(F16)+ABS(G16)+ABS(H16)</f>
+        <f t="shared" si="1"/>
         <v>0.27381399251341543</v>
       </c>
       <c r="P16" s="4">
-        <f>MIN(I16:M16)</f>
+        <f t="shared" si="2"/>
         <v>0.35197892785072299</v>
       </c>
       <c r="Q16" s="4">
-        <f>AVERAGE(I16:M16)</f>
+        <f t="shared" si="3"/>
         <v>0.40115348100662179</v>
       </c>
     </row>
@@ -2009,19 +2019,19 @@
         <v>0.36628293991088801</v>
       </c>
       <c r="N17" s="4">
-        <f>SUM(E17:H17)</f>
+        <f t="shared" si="0"/>
         <v>1.113597930004517E-2</v>
       </c>
       <c r="O17" s="4">
-        <f>ABS(E17)+ABS(F17)+ABS(G17)+ABS(H17)</f>
+        <f t="shared" si="1"/>
         <v>4.3541985676880834E-2</v>
       </c>
       <c r="P17" s="4">
-        <f>MIN(I17:M17)</f>
+        <f t="shared" si="2"/>
         <v>0.36628293991088801</v>
       </c>
       <c r="Q17" s="4">
-        <f>AVERAGE(I17:M17)</f>
+        <f t="shared" si="3"/>
         <v>0.40652583241462653</v>
       </c>
     </row>
@@ -2066,19 +2076,19 @@
         <v>0.43693694472312899</v>
       </c>
       <c r="N18" s="4">
-        <f>SUM(E18:H18)</f>
+        <f t="shared" si="0"/>
         <v>-0.6745572824108147</v>
       </c>
       <c r="O18" s="4">
-        <f>ABS(E18)+ABS(F18)+ABS(G18)+ABS(H18)</f>
+        <f t="shared" si="1"/>
         <v>0.6745572824108147</v>
       </c>
       <c r="P18" s="4">
-        <f>MIN(I18:M18)</f>
+        <f t="shared" si="2"/>
         <v>0.36088317632675099</v>
       </c>
       <c r="Q18" s="4">
-        <f>AVERAGE(I18:M18)</f>
+        <f t="shared" si="3"/>
         <v>0.40807228684425301</v>
       </c>
     </row>
@@ -2123,19 +2133,19 @@
         <v>0.42066064476966802</v>
       </c>
       <c r="N19" s="4">
-        <f>SUM(E19:H19)</f>
+        <f t="shared" si="0"/>
         <v>-0.21800865700433492</v>
       </c>
       <c r="O19" s="4">
-        <f>ABS(E19)+ABS(F19)+ABS(G19)+ABS(H19)</f>
+        <f t="shared" si="1"/>
         <v>0.21800865700433492</v>
       </c>
       <c r="P19" s="4">
-        <f>MIN(I19:M19)</f>
+        <f t="shared" si="2"/>
         <v>0.39985486865043601</v>
       </c>
       <c r="Q19" s="4">
-        <f>AVERAGE(I19:M19)</f>
+        <f t="shared" si="3"/>
         <v>0.40974389314651444</v>
       </c>
     </row>
@@ -2180,19 +2190,19 @@
         <v>0.40926903486251798</v>
       </c>
       <c r="N20" s="4">
-        <f>SUM(E20:H20)</f>
+        <f t="shared" si="0"/>
         <v>0.26950329094651287</v>
       </c>
       <c r="O20" s="4">
-        <f>ABS(E20)+ABS(F20)+ABS(G20)+ABS(H20)</f>
+        <f t="shared" si="1"/>
         <v>0.31637934786776811</v>
       </c>
       <c r="P20" s="4">
-        <f>MIN(I20:M20)</f>
+        <f t="shared" si="2"/>
         <v>0.36872541904449402</v>
       </c>
       <c r="Q20" s="4">
-        <f>AVERAGE(I20:M20)</f>
+        <f t="shared" si="3"/>
         <v>0.40980752706527657</v>
       </c>
     </row>
@@ -2237,19 +2247,19 @@
         <v>0.393289685249328</v>
       </c>
       <c r="N21" s="4">
-        <f>SUM(E21:H21)</f>
+        <f t="shared" si="0"/>
         <v>7.7339144342171803E-2</v>
       </c>
       <c r="O21" s="4">
-        <f>ABS(E21)+ABS(F21)+ABS(G21)+ABS(H21)</f>
+        <f t="shared" si="1"/>
         <v>0.25594748963175418</v>
       </c>
       <c r="P21" s="4">
-        <f>MIN(I21:M21)</f>
+        <f t="shared" si="2"/>
         <v>0.37348699569702098</v>
       </c>
       <c r="Q21" s="4">
-        <f>AVERAGE(I21:M21)</f>
+        <f t="shared" si="3"/>
         <v>0.41035903096198983</v>
       </c>
     </row>
@@ -2294,19 +2304,19 @@
         <v>0.37748071551322898</v>
       </c>
       <c r="N22" s="4">
-        <f>SUM(E22:H22)</f>
+        <f t="shared" si="0"/>
         <v>-0.10972209109502677</v>
       </c>
       <c r="O22" s="4">
-        <f>ABS(E22)+ABS(F22)+ABS(G22)+ABS(H22)</f>
+        <f t="shared" si="1"/>
         <v>0.11213206754020223</v>
       </c>
       <c r="P22" s="4">
-        <f>MIN(I22:M22)</f>
+        <f t="shared" si="2"/>
         <v>0.37748071551322898</v>
       </c>
       <c r="Q22" s="4">
-        <f>AVERAGE(I22:M22)</f>
+        <f t="shared" si="3"/>
         <v>0.41052899360656692</v>
       </c>
     </row>
@@ -2351,19 +2361,19 @@
         <v>0.46646457910537698</v>
       </c>
       <c r="N23" s="4">
-        <f>SUM(E23:H23)</f>
+        <f t="shared" si="0"/>
         <v>-0.29190479208191972</v>
       </c>
       <c r="O23" s="4">
-        <f>ABS(E23)+ABS(F23)+ABS(G23)+ABS(H23)</f>
+        <f t="shared" si="1"/>
         <v>0.29190479208191972</v>
       </c>
       <c r="P23" s="4">
-        <f>MIN(I23:M23)</f>
+        <f t="shared" si="2"/>
         <v>0.38959002494812001</v>
       </c>
       <c r="Q23" s="4">
-        <f>AVERAGE(I23:M23)</f>
+        <f t="shared" si="3"/>
         <v>0.41079177856445276</v>
       </c>
     </row>
@@ -2408,19 +2418,19 @@
         <v>0.42408037185668901</v>
       </c>
       <c r="N24" s="4">
-        <f>SUM(E24:H24)</f>
+        <f t="shared" si="0"/>
         <v>-0.13489091322420096</v>
       </c>
       <c r="O24" s="4">
-        <f>ABS(E24)+ABS(F24)+ABS(G24)+ABS(H24)</f>
+        <f t="shared" si="1"/>
         <v>0.13489091322420096</v>
       </c>
       <c r="P24" s="4">
-        <f>MIN(I24:M24)</f>
+        <f t="shared" si="2"/>
         <v>0.38107246160507202</v>
       </c>
       <c r="Q24" s="4">
-        <f>AVERAGE(I24:M24)</f>
+        <f t="shared" si="3"/>
         <v>0.41138362288475017</v>
       </c>
     </row>
@@ -2465,19 +2475,19 @@
         <v>0.39293560385704002</v>
       </c>
       <c r="N25" s="4">
-        <f>SUM(E25:H25)</f>
+        <f t="shared" si="0"/>
         <v>-0.16783378527425558</v>
       </c>
       <c r="O25" s="4">
-        <f>ABS(E25)+ABS(F25)+ABS(G25)+ABS(H25)</f>
+        <f t="shared" si="1"/>
         <v>0.16783378527425558</v>
       </c>
       <c r="P25" s="4">
-        <f>MIN(I25:M25)</f>
+        <f t="shared" si="2"/>
         <v>0.35206443071365301</v>
       </c>
       <c r="Q25" s="4">
-        <f>AVERAGE(I25:M25)</f>
+        <f t="shared" si="3"/>
         <v>0.4122536897659298</v>
       </c>
     </row>
@@ -2522,19 +2532,19 @@
         <v>0.39222916960716198</v>
       </c>
       <c r="N26" s="4">
-        <f>SUM(E26:H26)</f>
+        <f t="shared" si="0"/>
         <v>-0.20519546169803282</v>
       </c>
       <c r="O26" s="4">
-        <f>ABS(E26)+ABS(F26)+ABS(G26)+ABS(H26)</f>
+        <f t="shared" si="1"/>
         <v>0.23115558188713403</v>
       </c>
       <c r="P26" s="4">
-        <f>MIN(I26:M26)</f>
+        <f t="shared" si="2"/>
         <v>0.39222916960716198</v>
       </c>
       <c r="Q26" s="4">
-        <f>AVERAGE(I26:M26)</f>
+        <f t="shared" si="3"/>
         <v>0.41531412005424456</v>
       </c>
     </row>
@@ -2579,19 +2589,19 @@
         <v>0.44378682971000599</v>
       </c>
       <c r="N27" s="4">
-        <f>SUM(E27:H27)</f>
+        <f t="shared" si="0"/>
         <v>-0.67004718066712776</v>
       </c>
       <c r="O27" s="4">
-        <f>ABS(E27)+ABS(F27)+ABS(G27)+ABS(H27)</f>
+        <f t="shared" si="1"/>
         <v>0.67004718066712776</v>
       </c>
       <c r="P27" s="4">
-        <f>MIN(I27:M27)</f>
+        <f t="shared" si="2"/>
         <v>0.36591657996177601</v>
       </c>
       <c r="Q27" s="4">
-        <f>AVERAGE(I27:M27)</f>
+        <f t="shared" si="3"/>
         <v>0.41565491557121226</v>
       </c>
     </row>
@@ -2636,19 +2646,19 @@
         <v>0.49344369769096302</v>
       </c>
       <c r="N28" s="4">
-        <f>SUM(E28:H28)</f>
+        <f t="shared" si="0"/>
         <v>-0.47575091744592446</v>
       </c>
       <c r="O28" s="4">
-        <f>ABS(E28)+ABS(F28)+ABS(G28)+ABS(H28)</f>
+        <f t="shared" si="1"/>
         <v>0.56883863731848949</v>
       </c>
       <c r="P28" s="4">
-        <f>MIN(I28:M28)</f>
+        <f t="shared" si="2"/>
         <v>0.38506770133972101</v>
       </c>
       <c r="Q28" s="4">
-        <f>AVERAGE(I28:M28)</f>
+        <f t="shared" si="3"/>
         <v>0.41581714153289739</v>
       </c>
     </row>
@@ -2693,19 +2703,19 @@
         <v>0.42573010921478199</v>
       </c>
       <c r="N29" s="4">
-        <f>SUM(E29:H29)</f>
+        <f t="shared" si="0"/>
         <v>-7.6597469265833176E-2</v>
       </c>
       <c r="O29" s="4">
-        <f>ABS(E29)+ABS(F29)+ABS(G29)+ABS(H29)</f>
+        <f t="shared" si="1"/>
         <v>0.14637435528399698</v>
       </c>
       <c r="P29" s="4">
-        <f>MIN(I29:M29)</f>
+        <f t="shared" si="2"/>
         <v>0.39724695682525601</v>
       </c>
       <c r="Q29" s="4">
-        <f>AVERAGE(I29:M29)</f>
+        <f t="shared" si="3"/>
         <v>0.41625002622604318</v>
       </c>
     </row>
@@ -2750,19 +2760,19 @@
         <v>0.442328631877899</v>
       </c>
       <c r="N30" s="4">
-        <f>SUM(E30:H30)</f>
+        <f t="shared" si="0"/>
         <v>-9.9509541939183072E-2</v>
       </c>
       <c r="O30" s="4">
-        <f>ABS(E30)+ABS(F30)+ABS(G30)+ABS(H30)</f>
+        <f t="shared" si="1"/>
         <v>0.16928642795734689</v>
       </c>
       <c r="P30" s="4">
-        <f>MIN(I30:M30)</f>
+        <f t="shared" si="2"/>
         <v>0.377384573221206</v>
       </c>
       <c r="Q30" s="4">
-        <f>AVERAGE(I30:M30)</f>
+        <f t="shared" si="3"/>
         <v>0.4169134616851804</v>
       </c>
     </row>
@@ -2807,19 +2817,19 @@
         <v>0.40199947357177701</v>
       </c>
       <c r="N31" s="4">
-        <f>SUM(E31:H31)</f>
+        <f t="shared" si="0"/>
         <v>1.803949651156667E-2</v>
       </c>
       <c r="O31" s="4">
-        <f>ABS(E31)+ABS(F31)+ABS(G31)+ABS(H31)</f>
+        <f t="shared" si="1"/>
         <v>0.16294771474595954</v>
       </c>
       <c r="P31" s="4">
-        <f>MIN(I31:M31)</f>
+        <f t="shared" si="2"/>
         <v>0.38555178046226501</v>
       </c>
       <c r="Q31" s="4">
-        <f>AVERAGE(I31:M31)</f>
+        <f t="shared" si="3"/>
         <v>0.41696981787681564</v>
       </c>
     </row>
@@ -2864,19 +2874,19 @@
         <v>0.398844003677368</v>
       </c>
       <c r="N32" s="4">
-        <f>SUM(E32:H32)</f>
+        <f t="shared" si="0"/>
         <v>0.17224035262304419</v>
       </c>
       <c r="O32" s="4">
-        <f>ABS(E32)+ABS(F32)+ABS(G32)+ABS(H32)</f>
+        <f t="shared" si="1"/>
         <v>0.28192602897721297</v>
       </c>
       <c r="P32" s="4">
-        <f>MIN(I32:M32)</f>
+        <f t="shared" si="2"/>
         <v>0.38351684808731001</v>
       </c>
       <c r="Q32" s="4">
-        <f>AVERAGE(I32:M32)</f>
+        <f t="shared" si="3"/>
         <v>0.41720039248466445</v>
       </c>
     </row>
@@ -2921,19 +2931,19 @@
         <v>0.46018642187118503</v>
       </c>
       <c r="N33" s="4">
-        <f>SUM(E33:H33)</f>
+        <f t="shared" si="0"/>
         <v>-1.6376382586615001E-2</v>
       </c>
       <c r="O33" s="4">
-        <f>ABS(E33)+ABS(F33)+ABS(G33)+ABS(H33)</f>
+        <f t="shared" si="1"/>
         <v>0.2844740436770718</v>
       </c>
       <c r="P33" s="4">
-        <f>MIN(I33:M33)</f>
+        <f t="shared" si="2"/>
         <v>0.38023042678833002</v>
       </c>
       <c r="Q33" s="4">
-        <f>AVERAGE(I33:M33)</f>
+        <f t="shared" si="3"/>
         <v>0.41734394431114163</v>
       </c>
     </row>
@@ -2978,19 +2988,19 @@
         <v>0.38589796423911998</v>
       </c>
       <c r="N34" s="4">
-        <f>SUM(E34:H34)</f>
+        <f t="shared" ref="N34:N65" si="4">SUM(E34:H34)</f>
         <v>-9.6908895788724664E-2</v>
       </c>
       <c r="O34" s="4">
-        <f>ABS(E34)+ABS(F34)+ABS(G34)+ABS(H34)</f>
+        <f t="shared" ref="O34:O65" si="5">ABS(E34)+ABS(F34)+ABS(G34)+ABS(H34)</f>
         <v>0.12527899242300133</v>
       </c>
       <c r="P34" s="4">
-        <f>MIN(I34:M34)</f>
+        <f t="shared" ref="P34:P65" si="6">MIN(I34:M34)</f>
         <v>0.38589796423911998</v>
       </c>
       <c r="Q34" s="4">
-        <f>AVERAGE(I34:M34)</f>
+        <f t="shared" ref="Q34:Q65" si="7">AVERAGE(I34:M34)</f>
         <v>0.41756497025489736</v>
       </c>
     </row>
@@ -3035,19 +3045,19 @@
         <v>0.37001475691795299</v>
       </c>
       <c r="N35" s="4">
-        <f>SUM(E35:H35)</f>
+        <f t="shared" si="4"/>
         <v>-1.5208304616750381E-2</v>
       </c>
       <c r="O35" s="4">
-        <f>ABS(E35)+ABS(F35)+ABS(G35)+ABS(H35)</f>
+        <f t="shared" si="5"/>
         <v>4.392614940457519E-2</v>
       </c>
       <c r="P35" s="4">
-        <f>MIN(I35:M35)</f>
+        <f t="shared" si="6"/>
         <v>0.37001475691795299</v>
       </c>
       <c r="Q35" s="4">
-        <f>AVERAGE(I35:M35)</f>
+        <f t="shared" si="7"/>
         <v>0.41775328516960081</v>
       </c>
     </row>
@@ -3092,19 +3102,19 @@
         <v>0.44273743033409102</v>
       </c>
       <c r="N36" s="4">
-        <f>SUM(E36:H36)</f>
+        <f t="shared" si="4"/>
         <v>-0.54453894534839686</v>
       </c>
       <c r="O36" s="4">
-        <f>ABS(E36)+ABS(F36)+ABS(G36)+ABS(H36)</f>
+        <f t="shared" si="5"/>
         <v>0.72552615660592312</v>
       </c>
       <c r="P36" s="4">
-        <f>MIN(I36:M36)</f>
+        <f t="shared" si="6"/>
         <v>0.40544626116752602</v>
       </c>
       <c r="Q36" s="4">
-        <f>AVERAGE(I36:M36)</f>
+        <f t="shared" si="7"/>
         <v>0.41783926486968959</v>
       </c>
     </row>
@@ -3149,19 +3159,19 @@
         <v>0.42016133666038502</v>
       </c>
       <c r="N37" s="4">
-        <f>SUM(E37:H37)</f>
+        <f t="shared" si="4"/>
         <v>-0.18378616482651211</v>
       </c>
       <c r="O37" s="4">
-        <f>ABS(E37)+ABS(F37)+ABS(G37)+ABS(H37)</f>
+        <f t="shared" si="5"/>
         <v>0.20974628501561329</v>
       </c>
       <c r="P37" s="4">
-        <f>MIN(I37:M37)</f>
+        <f t="shared" si="6"/>
         <v>0.37924578785896301</v>
       </c>
       <c r="Q37" s="4">
-        <f>AVERAGE(I37:M37)</f>
+        <f t="shared" si="7"/>
         <v>0.41800605654716466</v>
       </c>
     </row>
@@ -3206,19 +3216,19 @@
         <v>0.40255841612815801</v>
       </c>
       <c r="N38" s="4">
-        <f>SUM(E38:H38)</f>
+        <f t="shared" si="4"/>
         <v>-0.39947184060757013</v>
       </c>
       <c r="O38" s="4">
-        <f>ABS(E38)+ABS(F38)+ABS(G38)+ABS(H38)</f>
+        <f t="shared" si="5"/>
         <v>0.39947184060757013</v>
       </c>
       <c r="P38" s="4">
-        <f>MIN(I38:M38)</f>
+        <f t="shared" si="6"/>
         <v>0.36884295940399098</v>
       </c>
       <c r="Q38" s="4">
-        <f>AVERAGE(I38:M38)</f>
+        <f t="shared" si="7"/>
         <v>0.41906496286392159</v>
       </c>
     </row>
@@ -3263,19 +3273,19 @@
         <v>0.44646584987640298</v>
       </c>
       <c r="N39" s="4">
-        <f>SUM(E39:H39)</f>
+        <f t="shared" si="4"/>
         <v>-7.0186354443679669E-2</v>
       </c>
       <c r="O39" s="4">
-        <f>ABS(E39)+ABS(F39)+ABS(G39)+ABS(H39)</f>
+        <f t="shared" si="5"/>
         <v>0.16327407431624469</v>
       </c>
       <c r="P39" s="4">
-        <f>MIN(I39:M39)</f>
+        <f t="shared" si="6"/>
         <v>0.39386215806007302</v>
       </c>
       <c r="Q39" s="4">
-        <f>AVERAGE(I39:M39)</f>
+        <f t="shared" si="7"/>
         <v>0.42037651538848797</v>
       </c>
     </row>
@@ -3320,19 +3330,19 @@
         <v>0.42865899205207803</v>
       </c>
       <c r="N40" s="4">
-        <f>SUM(E40:H40)</f>
+        <f t="shared" si="4"/>
         <v>-0.15776777630114799</v>
       </c>
       <c r="O40" s="4">
-        <f>ABS(E40)+ABS(F40)+ABS(G40)+ABS(H40)</f>
+        <f t="shared" si="5"/>
         <v>0.1837278964902492</v>
       </c>
       <c r="P40" s="4">
-        <f>MIN(I40:M40)</f>
+        <f t="shared" si="6"/>
         <v>0.41014298796653698</v>
       </c>
       <c r="Q40" s="4">
-        <f>AVERAGE(I40:M40)</f>
+        <f t="shared" si="7"/>
         <v>0.42139491438865628</v>
       </c>
     </row>
@@ -3377,19 +3387,19 @@
         <v>0.47280135750770502</v>
       </c>
       <c r="N41" s="4">
-        <f>SUM(E41:H41)</f>
+        <f t="shared" si="4"/>
         <v>-0.53646174361611332</v>
       </c>
       <c r="O41" s="4">
-        <f>ABS(E41)+ABS(F41)+ABS(G41)+ABS(H41)</f>
+        <f t="shared" si="5"/>
         <v>0.53646174361611332</v>
       </c>
       <c r="P41" s="4">
-        <f>MIN(I41:M41)</f>
+        <f t="shared" si="6"/>
         <v>0.318016827106475</v>
       </c>
       <c r="Q41" s="4">
-        <f>AVERAGE(I41:M41)</f>
+        <f t="shared" si="7"/>
         <v>0.42145465016364997</v>
       </c>
     </row>
@@ -3434,19 +3444,19 @@
         <v>0.394514709711074</v>
       </c>
       <c r="N42" s="4">
-        <f>SUM(E42:H42)</f>
+        <f t="shared" si="4"/>
         <v>-0.23270782358469297</v>
       </c>
       <c r="O42" s="4">
-        <f>ABS(E42)+ABS(F42)+ABS(G42)+ABS(H42)</f>
+        <f t="shared" si="5"/>
         <v>0.47208763988732494</v>
       </c>
       <c r="P42" s="4">
-        <f>MIN(I42:M42)</f>
+        <f t="shared" si="6"/>
         <v>0.394514709711074</v>
       </c>
       <c r="Q42" s="4">
-        <f>AVERAGE(I42:M42)</f>
+        <f t="shared" si="7"/>
         <v>0.42159061431884703</v>
       </c>
     </row>
@@ -3491,19 +3501,19 @@
         <v>0.46001592278480502</v>
       </c>
       <c r="N43" s="4">
-        <f>SUM(E43:H43)</f>
+        <f t="shared" si="4"/>
         <v>-7.7553656222601103E-2</v>
       </c>
       <c r="O43" s="4">
-        <f>ABS(E43)+ABS(F43)+ABS(G43)+ABS(H43)</f>
+        <f t="shared" si="5"/>
         <v>0.2020085072176909</v>
       </c>
       <c r="P43" s="4">
-        <f>MIN(I43:M43)</f>
+        <f t="shared" si="6"/>
         <v>0.366142958402633</v>
       </c>
       <c r="Q43" s="4">
-        <f>AVERAGE(I43:M43)</f>
+        <f t="shared" si="7"/>
         <v>0.42183616161346371</v>
       </c>
     </row>
@@ -3548,19 +3558,19 @@
         <v>0.43658798933029103</v>
       </c>
       <c r="N44" s="4">
-        <f>SUM(E44:H44)</f>
+        <f t="shared" si="4"/>
         <v>-3.6228653362000401E-2</v>
       </c>
       <c r="O44" s="4">
-        <f>ABS(E44)+ABS(F44)+ABS(G44)+ABS(H44)</f>
+        <f t="shared" si="5"/>
         <v>0.1319656595692654</v>
       </c>
       <c r="P44" s="4">
-        <f>MIN(I44:M44)</f>
+        <f t="shared" si="6"/>
         <v>0.37550306320190402</v>
       </c>
       <c r="Q44" s="4">
-        <f>AVERAGE(I44:M44)</f>
+        <f t="shared" si="7"/>
         <v>0.42294487953185983</v>
       </c>
     </row>
@@ -3605,19 +3615,19 @@
         <v>0.44305869936942999</v>
       </c>
       <c r="N45" s="4">
-        <f>SUM(E45:H45)</f>
+        <f t="shared" si="4"/>
         <v>-0.19813659220498075</v>
       </c>
       <c r="O45" s="4">
-        <f>ABS(E45)+ABS(F45)+ABS(G45)+ABS(H45)</f>
+        <f t="shared" si="5"/>
         <v>0.19813659220498075</v>
       </c>
       <c r="P45" s="4">
-        <f>MIN(I45:M45)</f>
+        <f t="shared" si="6"/>
         <v>0.37146580219268799</v>
       </c>
       <c r="Q45" s="4">
-        <f>AVERAGE(I45:M45)</f>
+        <f t="shared" si="7"/>
         <v>0.42302011847495979</v>
       </c>
     </row>
@@ -3662,19 +3672,19 @@
         <v>0.406197309494018</v>
       </c>
       <c r="N46" s="4">
-        <f>SUM(E46:H46)</f>
+        <f t="shared" si="4"/>
         <v>-0.3283624927095366</v>
       </c>
       <c r="O46" s="4">
-        <f>ABS(E46)+ABS(F46)+ABS(G46)+ABS(H46)</f>
+        <f t="shared" si="5"/>
         <v>0.3283624927095366</v>
       </c>
       <c r="P46" s="4">
-        <f>MIN(I46:M46)</f>
+        <f t="shared" si="6"/>
         <v>0.35353168845176602</v>
       </c>
       <c r="Q46" s="4">
-        <f>AVERAGE(I46:M46)</f>
+        <f t="shared" si="7"/>
         <v>0.423721951246261</v>
       </c>
     </row>
@@ -3719,19 +3729,19 @@
         <v>0.39838135242462103</v>
       </c>
       <c r="N47" s="4">
-        <f>SUM(E47:H47)</f>
+        <f t="shared" si="4"/>
         <v>-4.9041848668302503E-2</v>
       </c>
       <c r="O47" s="4">
-        <f>ABS(E47)+ABS(F47)+ABS(G47)+ABS(H47)</f>
+        <f t="shared" si="5"/>
         <v>0.11881873468646631</v>
       </c>
       <c r="P47" s="4">
-        <f>MIN(I47:M47)</f>
+        <f t="shared" si="6"/>
         <v>0.37427827715873702</v>
       </c>
       <c r="Q47" s="4">
-        <f>AVERAGE(I47:M47)</f>
+        <f t="shared" si="7"/>
         <v>0.42423598766326875</v>
       </c>
     </row>
@@ -3776,19 +3786,19 @@
         <v>0.43727269768714899</v>
       </c>
       <c r="N48" s="4">
-        <f>SUM(E48:H48)</f>
+        <f t="shared" si="4"/>
         <v>-0.1902669539148352</v>
       </c>
       <c r="O48" s="4">
-        <f>ABS(E48)+ABS(F48)+ABS(G48)+ABS(H48)</f>
+        <f t="shared" si="5"/>
         <v>0.1902669539148352</v>
       </c>
       <c r="P48" s="4">
-        <f>MIN(I48:M48)</f>
+        <f t="shared" si="6"/>
         <v>0.368789613246917</v>
       </c>
       <c r="Q48" s="4">
-        <f>AVERAGE(I48:M48)</f>
+        <f t="shared" si="7"/>
         <v>0.4248495578765864</v>
       </c>
     </row>
@@ -3833,19 +3843,19 @@
         <v>0.44315671920776301</v>
       </c>
       <c r="N49" s="4">
-        <f>SUM(E49:H49)</f>
+        <f t="shared" si="4"/>
         <v>-0.58059879086518962</v>
       </c>
       <c r="O49" s="4">
-        <f>ABS(E49)+ABS(F49)+ABS(G49)+ABS(H49)</f>
+        <f t="shared" si="5"/>
         <v>0.81997860716782167</v>
       </c>
       <c r="P49" s="4">
-        <f>MIN(I49:M49)</f>
+        <f t="shared" si="6"/>
         <v>0.39834129810333202</v>
       </c>
       <c r="Q49" s="4">
-        <f>AVERAGE(I49:M49)</f>
+        <f t="shared" si="7"/>
         <v>0.42521966695785485</v>
       </c>
     </row>
@@ -3890,19 +3900,19 @@
         <v>0.396277606487274</v>
       </c>
       <c r="N50" s="4">
-        <f>SUM(E50:H50)</f>
+        <f t="shared" si="4"/>
         <v>-0.1871373874630039</v>
       </c>
       <c r="O50" s="4">
-        <f>ABS(E50)+ABS(F50)+ABS(G50)+ABS(H50)</f>
+        <f t="shared" si="5"/>
         <v>0.25691427348116769</v>
       </c>
       <c r="P50" s="4">
-        <f>MIN(I50:M50)</f>
+        <f t="shared" si="6"/>
         <v>0.389473766088485</v>
       </c>
       <c r="Q50" s="4">
-        <f>AVERAGE(I50:M50)</f>
+        <f t="shared" si="7"/>
         <v>0.42582878470420782</v>
       </c>
     </row>
@@ -3947,19 +3957,19 @@
         <v>0.38845726847648598</v>
       </c>
       <c r="N51" s="4">
-        <f>SUM(E51:H51)</f>
+        <f t="shared" si="4"/>
         <v>7.1532247466299104E-3</v>
       </c>
       <c r="O51" s="4">
-        <f>ABS(E51)+ABS(F51)+ABS(G51)+ABS(H51)</f>
+        <f t="shared" si="5"/>
         <v>0.32012608294096329</v>
       </c>
       <c r="P51" s="4">
-        <f>MIN(I51:M51)</f>
+        <f t="shared" si="6"/>
         <v>0.38845726847648598</v>
       </c>
       <c r="Q51" s="4">
-        <f>AVERAGE(I51:M51)</f>
+        <f t="shared" si="7"/>
         <v>0.42607452273368801</v>
       </c>
     </row>
@@ -4004,19 +4014,19 @@
         <v>0.41015782952308599</v>
       </c>
       <c r="N52" s="4">
-        <f>SUM(E52:H52)</f>
+        <f t="shared" si="4"/>
         <v>0.14589606870624863</v>
       </c>
       <c r="O52" s="4">
-        <f>ABS(E52)+ABS(F52)+ABS(G52)+ABS(H52)</f>
+        <f t="shared" si="5"/>
         <v>0.28231019270490731</v>
       </c>
       <c r="P52" s="4">
-        <f>MIN(I52:M52)</f>
+        <f t="shared" si="6"/>
         <v>0.41015782952308599</v>
       </c>
       <c r="Q52" s="4">
-        <f>AVERAGE(I52:M52)</f>
+        <f t="shared" si="7"/>
         <v>0.42696208357810939</v>
       </c>
     </row>
@@ -4061,19 +4071,19 @@
         <v>0.37371903657913202</v>
       </c>
       <c r="N53" s="4">
-        <f>SUM(E53:H53)</f>
+        <f t="shared" si="4"/>
         <v>-9.8447751940357639E-2</v>
       </c>
       <c r="O53" s="4">
-        <f>ABS(E53)+ABS(F53)+ABS(G53)+ABS(H53)</f>
+        <f t="shared" si="5"/>
         <v>9.8447751940357639E-2</v>
       </c>
       <c r="P53" s="4">
-        <f>MIN(I53:M53)</f>
+        <f t="shared" si="6"/>
         <v>0.37371903657913202</v>
       </c>
       <c r="Q53" s="4">
-        <f>AVERAGE(I53:M53)</f>
+        <f t="shared" si="7"/>
         <v>0.42750180959701478</v>
       </c>
     </row>
@@ -4118,19 +4128,19 @@
         <v>0.45761018991470298</v>
       </c>
       <c r="N54" s="4">
-        <f>SUM(E54:H54)</f>
+        <f t="shared" si="4"/>
         <v>-7.9607934319009227E-2</v>
       </c>
       <c r="O54" s="4">
-        <f>ABS(E54)+ABS(F54)+ABS(G54)+ABS(H54)</f>
+        <f t="shared" si="5"/>
         <v>0.16750742570397043</v>
       </c>
       <c r="P54" s="4">
-        <f>MIN(I54:M54)</f>
+        <f t="shared" si="6"/>
         <v>0.369769126176834</v>
       </c>
       <c r="Q54" s="4">
-        <f>AVERAGE(I54:M54)</f>
+        <f t="shared" si="7"/>
         <v>0.42793172597885099</v>
       </c>
     </row>
@@ -4175,19 +4185,19 @@
         <v>0.44344636797904902</v>
       </c>
       <c r="N55" s="4">
-        <f>SUM(E55:H55)</f>
+        <f t="shared" si="4"/>
         <v>-0.1682975698416555</v>
       </c>
       <c r="O55" s="4">
-        <f>ABS(E55)+ABS(F55)+ABS(G55)+ABS(H55)</f>
+        <f t="shared" si="5"/>
         <v>0.32597394724478052</v>
       </c>
       <c r="P55" s="4">
-        <f>MIN(I55:M55)</f>
+        <f t="shared" si="6"/>
         <v>0.33620071411132801</v>
       </c>
       <c r="Q55" s="4">
-        <f>AVERAGE(I55:M55)</f>
+        <f t="shared" si="7"/>
         <v>0.42858333587646447</v>
       </c>
     </row>
@@ -4232,19 +4242,19 @@
         <v>0.41466638445854098</v>
       </c>
       <c r="N56" s="4">
-        <f>SUM(E56:H56)</f>
+        <f t="shared" si="4"/>
         <v>2.7664024740019694E-2</v>
       </c>
       <c r="O56" s="4">
-        <f>ABS(E56)+ABS(F56)+ABS(G56)+ABS(H56)</f>
+        <f t="shared" si="5"/>
         <v>0.40054223667113631</v>
       </c>
       <c r="P56" s="4">
-        <f>MIN(I56:M56)</f>
+        <f t="shared" si="6"/>
         <v>0.38953119516372597</v>
       </c>
       <c r="Q56" s="4">
-        <f>AVERAGE(I56:M56)</f>
+        <f t="shared" si="7"/>
         <v>0.42937073111534058</v>
       </c>
     </row>
@@ -4289,19 +4299,19 @@
         <v>0.443111062049865</v>
       </c>
       <c r="N57" s="4">
-        <f>SUM(E57:H57)</f>
+        <f t="shared" si="4"/>
         <v>0.1286923476857775</v>
       </c>
       <c r="O57" s="4">
-        <f>ABS(E57)+ABS(F57)+ABS(G57)+ABS(H57)</f>
+        <f t="shared" si="5"/>
         <v>0.26836384601997954</v>
       </c>
       <c r="P57" s="4">
-        <f>MIN(I57:M57)</f>
+        <f t="shared" si="6"/>
         <v>0.40394756197929299</v>
       </c>
       <c r="Q57" s="4">
-        <f>AVERAGE(I57:M57)</f>
+        <f t="shared" si="7"/>
         <v>0.43108751177787719</v>
       </c>
     </row>
@@ -4346,19 +4356,19 @@
         <v>0.422886222600936</v>
       </c>
       <c r="N58" s="4">
-        <f>SUM(E58:H58)</f>
+        <f t="shared" si="4"/>
         <v>-0.26588640355655563</v>
       </c>
       <c r="O58" s="4">
-        <f>ABS(E58)+ABS(F58)+ABS(G58)+ABS(H58)</f>
+        <f t="shared" si="5"/>
         <v>0.26588640355655563</v>
       </c>
       <c r="P58" s="4">
-        <f>MIN(I58:M58)</f>
+        <f t="shared" si="6"/>
         <v>0.40466696023941001</v>
       </c>
       <c r="Q58" s="4">
-        <f>AVERAGE(I58:M58)</f>
+        <f t="shared" si="7"/>
         <v>0.43124774098396257</v>
       </c>
     </row>
@@ -4403,19 +4413,19 @@
         <v>0.39513796567916798</v>
       </c>
       <c r="N59" s="4">
-        <f>SUM(E59:H59)</f>
+        <f t="shared" si="4"/>
         <v>-0.21302184127730792</v>
       </c>
       <c r="O59" s="4">
-        <f>ABS(E59)+ABS(F59)+ABS(G59)+ABS(H59)</f>
+        <f t="shared" si="5"/>
         <v>0.45240165757993989</v>
       </c>
       <c r="P59" s="4">
-        <f>MIN(I59:M59)</f>
+        <f t="shared" si="6"/>
         <v>0.38972112536430298</v>
       </c>
       <c r="Q59" s="4">
-        <f>AVERAGE(I59:M59)</f>
+        <f t="shared" si="7"/>
         <v>0.43191881179809516</v>
       </c>
     </row>
@@ -4460,19 +4470,19 @@
         <v>0.50823658704757602</v>
       </c>
       <c r="N60" s="4">
-        <f>SUM(E60:H60)</f>
+        <f t="shared" si="4"/>
         <v>9.2566410531883803E-2</v>
       </c>
       <c r="O60" s="4">
-        <f>ABS(E60)+ABS(F60)+ABS(G60)+ABS(H60)</f>
+        <f t="shared" si="5"/>
         <v>0.24072022344204219</v>
       </c>
       <c r="P60" s="4">
-        <f>MIN(I60:M60)</f>
+        <f t="shared" si="6"/>
         <v>0.358230710029602</v>
       </c>
       <c r="Q60" s="4">
-        <f>AVERAGE(I60:M60)</f>
+        <f t="shared" si="7"/>
         <v>0.43264909386634781</v>
       </c>
     </row>
@@ -4517,19 +4527,19 @@
         <v>0.42499521374702398</v>
       </c>
       <c r="N61" s="4">
-        <f>SUM(E61:H61)</f>
+        <f t="shared" si="4"/>
         <v>-0.26439729634509906</v>
       </c>
       <c r="O61" s="4">
-        <f>ABS(E61)+ABS(F61)+ABS(G61)+ABS(H61)</f>
+        <f t="shared" si="5"/>
         <v>0.26680727279027455</v>
       </c>
       <c r="P61" s="4">
-        <f>MIN(I61:M61)</f>
+        <f t="shared" si="6"/>
         <v>0.35282272100448597</v>
       </c>
       <c r="Q61" s="4">
-        <f>AVERAGE(I61:M61)</f>
+        <f t="shared" si="7"/>
         <v>0.43326212167739825</v>
       </c>
     </row>
@@ -4574,19 +4584,19 @@
         <v>0.39119973778724598</v>
       </c>
       <c r="N62" s="4">
-        <f>SUM(E62:H62)</f>
+        <f t="shared" si="4"/>
         <v>0.16178132586845384</v>
       </c>
       <c r="O62" s="4">
-        <f>ABS(E62)+ABS(F62)+ABS(G62)+ABS(H62)</f>
+        <f t="shared" si="5"/>
         <v>0.20022315289329698</v>
       </c>
       <c r="P62" s="4">
-        <f>MIN(I62:M62)</f>
+        <f t="shared" si="6"/>
         <v>0.36514335870742798</v>
       </c>
       <c r="Q62" s="4">
-        <f>AVERAGE(I62:M62)</f>
+        <f t="shared" si="7"/>
         <v>0.43336118459701478</v>
       </c>
     </row>
@@ -4631,19 +4641,19 @@
         <v>0.44074693322181702</v>
       </c>
       <c r="N63" s="4">
-        <f>SUM(E63:H63)</f>
+        <f t="shared" si="4"/>
         <v>5.0851254455132472E-3</v>
       </c>
       <c r="O63" s="4">
-        <f>ABS(E63)+ABS(F63)+ABS(G63)+ABS(H63)</f>
+        <f t="shared" si="5"/>
         <v>0.23429469085711874</v>
       </c>
       <c r="P63" s="4">
-        <f>MIN(I63:M63)</f>
+        <f t="shared" si="6"/>
         <v>0.40563690662384</v>
       </c>
       <c r="Q63" s="4">
-        <f>AVERAGE(I63:M63)</f>
+        <f t="shared" si="7"/>
         <v>0.43346283435821481</v>
       </c>
     </row>
@@ -4688,19 +4698,19 @@
         <v>0.442571520805358</v>
       </c>
       <c r="N64" s="4">
-        <f>SUM(E64:H64)</f>
+        <f t="shared" si="4"/>
         <v>0.14196230173493032</v>
       </c>
       <c r="O64" s="4">
-        <f>ABS(E64)+ABS(F64)+ABS(G64)+ABS(H64)</f>
+        <f t="shared" si="5"/>
         <v>0.2816338000691323</v>
       </c>
       <c r="P64" s="4">
-        <f>MIN(I64:M64)</f>
+        <f t="shared" si="6"/>
         <v>0.413067817687988</v>
       </c>
       <c r="Q64" s="4">
-        <f>AVERAGE(I64:M64)</f>
+        <f t="shared" si="7"/>
         <v>0.43350896835327096</v>
       </c>
     </row>
@@ -4745,19 +4755,19 @@
         <v>0.44834455847740101</v>
       </c>
       <c r="N65" s="4">
-        <f>SUM(E65:H65)</f>
+        <f t="shared" si="4"/>
         <v>-0.31501026653265901</v>
       </c>
       <c r="O65" s="4">
-        <f>ABS(E65)+ABS(F65)+ABS(G65)+ABS(H65)</f>
+        <f t="shared" si="5"/>
         <v>0.31501026653265901</v>
       </c>
       <c r="P65" s="4">
-        <f>MIN(I65:M65)</f>
+        <f t="shared" si="6"/>
         <v>0.40179818868637002</v>
       </c>
       <c r="Q65" s="4">
-        <f>AVERAGE(I65:M65)</f>
+        <f t="shared" si="7"/>
         <v>0.43479230999946539</v>
       </c>
     </row>
@@ -4802,19 +4812,19 @@
         <v>0.451346725225448</v>
       </c>
       <c r="N66" s="4">
-        <f>SUM(E66:H66)</f>
+        <f t="shared" ref="N66:N97" si="8">SUM(E66:H66)</f>
         <v>8.6940457391079196E-2</v>
       </c>
       <c r="O66" s="4">
-        <f>ABS(E66)+ABS(F66)+ABS(G66)+ABS(H66)</f>
+        <f t="shared" ref="O66:O97" si="9">ABS(E66)+ABS(F66)+ABS(G66)+ABS(H66)</f>
         <v>0.22221624492971659</v>
       </c>
       <c r="P66" s="4">
-        <f>MIN(I66:M66)</f>
+        <f t="shared" ref="P66:P97" si="10">MIN(I66:M66)</f>
         <v>0.388520807027816</v>
       </c>
       <c r="Q66" s="4">
-        <f>AVERAGE(I66:M66)</f>
+        <f t="shared" ref="Q66:Q97" si="11">AVERAGE(I66:M66)</f>
         <v>0.43522381186485221</v>
       </c>
     </row>
@@ -4859,19 +4869,19 @@
         <v>0.48637071251869202</v>
       </c>
       <c r="N67" s="4">
-        <f>SUM(E67:H67)</f>
+        <f t="shared" si="8"/>
         <v>-0.14471468773764848</v>
       </c>
       <c r="O67" s="4">
-        <f>ABS(E67)+ABS(F67)+ABS(G67)+ABS(H67)</f>
+        <f t="shared" si="9"/>
         <v>0.17584250897064874</v>
       </c>
       <c r="P67" s="4">
-        <f>MIN(I67:M67)</f>
+        <f t="shared" si="10"/>
         <v>0.36965489387512201</v>
       </c>
       <c r="Q67" s="4">
-        <f>AVERAGE(I67:M67)</f>
+        <f t="shared" si="11"/>
         <v>0.43575823903083782</v>
       </c>
     </row>
@@ -4916,19 +4926,19 @@
         <v>0.44868433475494301</v>
       </c>
       <c r="N68" s="4">
-        <f>SUM(E68:H68)</f>
+        <f t="shared" si="8"/>
         <v>-2.3712393783131627E-2</v>
       </c>
       <c r="O68" s="4">
-        <f>ABS(E68)+ABS(F68)+ABS(G68)+ABS(H68)</f>
+        <f t="shared" si="9"/>
         <v>0.11680011365569663</v>
       </c>
       <c r="P68" s="4">
-        <f>MIN(I68:M68)</f>
+        <f t="shared" si="10"/>
         <v>0.35579273104667603</v>
       </c>
       <c r="Q68" s="4">
-        <f>AVERAGE(I68:M68)</f>
+        <f t="shared" si="11"/>
         <v>0.43589244484901385</v>
       </c>
     </row>
@@ -4973,19 +4983,19 @@
         <v>0.431070506572723</v>
       </c>
       <c r="N69" s="4">
-        <f>SUM(E69:H69)</f>
+        <f t="shared" si="8"/>
         <v>-0.11367501813006964</v>
       </c>
       <c r="O69" s="4">
-        <f>ABS(E69)+ABS(F69)+ABS(G69)+ABS(H69)</f>
+        <f t="shared" si="9"/>
         <v>0.11367501813006964</v>
       </c>
       <c r="P69" s="4">
-        <f>MIN(I69:M69)</f>
+        <f t="shared" si="10"/>
         <v>0.366671413183212</v>
       </c>
       <c r="Q69" s="4">
-        <f>AVERAGE(I69:M69)</f>
+        <f t="shared" si="11"/>
         <v>0.43639327883720364</v>
       </c>
     </row>
@@ -5030,19 +5040,19 @@
         <v>0.37696048617362898</v>
       </c>
       <c r="N70" s="4">
-        <f>SUM(E70:H70)</f>
+        <f t="shared" si="8"/>
         <v>5.5085032697142905E-2</v>
       </c>
       <c r="O70" s="4">
-        <f>ABS(E70)+ABS(F70)+ABS(G70)+ABS(H70)</f>
+        <f t="shared" si="9"/>
         <v>0.36610109266174429</v>
       </c>
       <c r="P70" s="4">
-        <f>MIN(I70:M70)</f>
+        <f t="shared" si="10"/>
         <v>0.36295732855796797</v>
       </c>
       <c r="Q70" s="4">
-        <f>AVERAGE(I70:M70)</f>
+        <f t="shared" si="11"/>
         <v>0.43693504929542482</v>
       </c>
     </row>
@@ -5087,19 +5097,19 @@
         <v>0.45564505457878102</v>
       </c>
       <c r="N71" s="4">
-        <f>SUM(E71:H71)</f>
+        <f t="shared" si="8"/>
         <v>0.17570921793304939</v>
       </c>
       <c r="O71" s="4">
-        <f>ABS(E71)+ABS(F71)+ABS(G71)+ABS(H71)</f>
+        <f t="shared" si="9"/>
         <v>0.58578367745203253</v>
       </c>
       <c r="P71" s="4">
-        <f>MIN(I71:M71)</f>
+        <f t="shared" si="10"/>
         <v>0.38734954595565702</v>
       </c>
       <c r="Q71" s="4">
-        <f>AVERAGE(I71:M71)</f>
+        <f t="shared" si="11"/>
         <v>0.43736463189125024</v>
       </c>
     </row>
@@ -5144,19 +5154,19 @@
         <v>0.41571000218391402</v>
       </c>
       <c r="N72" s="4">
-        <f>SUM(E72:H72)</f>
+        <f t="shared" si="8"/>
         <v>0.35582857124150746</v>
       </c>
       <c r="O72" s="4">
-        <f>ABS(E72)+ABS(F72)+ABS(G72)+ABS(H72)</f>
+        <f t="shared" si="9"/>
         <v>0.40566432414357456</v>
       </c>
       <c r="P72" s="4">
-        <f>MIN(I72:M72)</f>
+        <f t="shared" si="10"/>
         <v>0.40728941559791498</v>
       </c>
       <c r="Q72" s="4">
-        <f>AVERAGE(I72:M72)</f>
+        <f t="shared" si="11"/>
         <v>0.43907134532928421</v>
       </c>
     </row>
@@ -5201,19 +5211,19 @@
         <v>0.44664883613586398</v>
       </c>
       <c r="N73" s="4">
-        <f>SUM(E73:H73)</f>
+        <f t="shared" si="8"/>
         <v>0.12387306059961532</v>
       </c>
       <c r="O73" s="4">
-        <f>ABS(E73)+ABS(F73)+ABS(G73)+ABS(H73)</f>
+        <f t="shared" si="9"/>
         <v>0.20941357337431066</v>
       </c>
       <c r="P73" s="4">
-        <f>MIN(I73:M73)</f>
+        <f t="shared" si="10"/>
         <v>0.40586906671523998</v>
       </c>
       <c r="Q73" s="4">
-        <f>AVERAGE(I73:M73)</f>
+        <f t="shared" si="11"/>
         <v>0.43944891095161404</v>
       </c>
     </row>
@@ -5258,19 +5268,19 @@
         <v>0.41299670934677102</v>
       </c>
       <c r="N74" s="4">
-        <f>SUM(E74:H74)</f>
+        <f t="shared" si="8"/>
         <v>3.3889478662947059E-3</v>
       </c>
       <c r="O74" s="4">
-        <f>ABS(E74)+ABS(F74)+ABS(G74)+ABS(H74)</f>
+        <f t="shared" si="9"/>
         <v>0.23599086843633729</v>
       </c>
       <c r="P74" s="4">
-        <f>MIN(I74:M74)</f>
+        <f t="shared" si="10"/>
         <v>0.40836417675018299</v>
       </c>
       <c r="Q74" s="4">
-        <f>AVERAGE(I74:M74)</f>
+        <f t="shared" si="11"/>
         <v>0.44032436609268155</v>
       </c>
     </row>
@@ -5315,19 +5325,19 @@
         <v>0.449714034795761</v>
       </c>
       <c r="N75" s="4">
-        <f>SUM(E75:H75)</f>
+        <f t="shared" si="8"/>
         <v>-5.4550115129624155E-2</v>
       </c>
       <c r="O75" s="4">
-        <f>ABS(E75)+ABS(F75)+ABS(G75)+ABS(H75)</f>
+        <f t="shared" si="9"/>
         <v>0.38783674910355015</v>
       </c>
       <c r="P75" s="4">
-        <f>MIN(I75:M75)</f>
+        <f t="shared" si="10"/>
         <v>0.38493254780769298</v>
       </c>
       <c r="Q75" s="4">
-        <f>AVERAGE(I75:M75)</f>
+        <f t="shared" si="11"/>
         <v>0.44130857586860622</v>
       </c>
     </row>
@@ -5372,19 +5382,19 @@
         <v>0.43222856521606401</v>
       </c>
       <c r="N76" s="4">
-        <f>SUM(E76:H76)</f>
+        <f t="shared" si="8"/>
         <v>-0.27204129725344728</v>
       </c>
       <c r="O76" s="4">
-        <f>ABS(E76)+ABS(F76)+ABS(G76)+ABS(H76)</f>
+        <f t="shared" si="9"/>
         <v>0.27204129725344728</v>
       </c>
       <c r="P76" s="4">
-        <f>MIN(I76:M76)</f>
+        <f t="shared" si="10"/>
         <v>0.38394969701766901</v>
       </c>
       <c r="Q76" s="4">
-        <f>AVERAGE(I76:M76)</f>
+        <f t="shared" si="11"/>
         <v>0.4413146555423732</v>
       </c>
     </row>
@@ -5429,19 +5439,19 @@
         <v>0.38783317804336498</v>
       </c>
       <c r="N77" s="4">
-        <f>SUM(E77:H77)</f>
+        <f t="shared" si="8"/>
         <v>-8.6059441935643466E-2</v>
       </c>
       <c r="O77" s="4">
-        <f>ABS(E77)+ABS(F77)+ABS(G77)+ABS(H77)</f>
+        <f t="shared" si="9"/>
         <v>8.6059441935643466E-2</v>
       </c>
       <c r="P77" s="4">
-        <f>MIN(I77:M77)</f>
+        <f t="shared" si="10"/>
         <v>0.38783317804336498</v>
       </c>
       <c r="Q77" s="4">
-        <f>AVERAGE(I77:M77)</f>
+        <f t="shared" si="11"/>
         <v>0.4416986584663386</v>
       </c>
     </row>
@@ -5486,19 +5496,19 @@
         <v>0.41446313261985701</v>
       </c>
       <c r="N78" s="4">
-        <f>SUM(E78:H78)</f>
+        <f t="shared" si="8"/>
         <v>-0.16509003332679489</v>
       </c>
       <c r="O78" s="4">
-        <f>ABS(E78)+ABS(F78)+ABS(G78)+ABS(H78)</f>
+        <f t="shared" si="9"/>
         <v>0.49837666730072089</v>
       </c>
       <c r="P78" s="4">
-        <f>MIN(I78:M78)</f>
+        <f t="shared" si="10"/>
         <v>0.38607436418533297</v>
       </c>
       <c r="Q78" s="4">
-        <f>AVERAGE(I78:M78)</f>
+        <f t="shared" si="11"/>
         <v>0.44181277751922565</v>
       </c>
     </row>
@@ -5543,19 +5553,19 @@
         <v>0.482530057430267</v>
       </c>
       <c r="N79" s="4">
-        <f>SUM(E79:H79)</f>
+        <f t="shared" si="8"/>
         <v>7.9035321921390345E-2</v>
       </c>
       <c r="O79" s="4">
-        <f>ABS(E79)+ABS(F79)+ABS(G79)+ABS(H79)</f>
+        <f t="shared" si="9"/>
         <v>0.25425131205253565</v>
       </c>
       <c r="P79" s="4">
-        <f>MIN(I79:M79)</f>
+        <f t="shared" si="10"/>
         <v>0.41698762774467402</v>
       </c>
       <c r="Q79" s="4">
-        <f>AVERAGE(I79:M79)</f>
+        <f t="shared" si="11"/>
         <v>0.44313018321990916</v>
       </c>
     </row>
@@ -5600,19 +5610,19 @@
         <v>0.48726773262023898</v>
       </c>
       <c r="N80" s="4">
-        <f>SUM(E80:H80)</f>
+        <f t="shared" si="8"/>
         <v>0.24056459595811669</v>
       </c>
       <c r="O80" s="4">
-        <f>ABS(E80)+ABS(F80)+ABS(G80)+ABS(H80)</f>
+        <f t="shared" si="9"/>
         <v>0.28337867166030428</v>
       </c>
       <c r="P80" s="4">
-        <f>MIN(I80:M80)</f>
+        <f t="shared" si="10"/>
         <v>0.37329059839248602</v>
       </c>
       <c r="Q80" s="4">
-        <f>AVERAGE(I80:M80)</f>
+        <f t="shared" si="11"/>
         <v>0.44329892396926834</v>
       </c>
     </row>
@@ -5657,19 +5667,19 @@
         <v>0.432772576808929</v>
       </c>
       <c r="N81" s="4">
-        <f>SUM(E81:H81)</f>
+        <f t="shared" si="8"/>
         <v>3.7710319060789643E-2</v>
       </c>
       <c r="O81" s="4">
-        <f>ABS(E81)+ABS(F81)+ABS(G81)+ABS(H81)</f>
+        <f t="shared" si="9"/>
         <v>0.32429415970096115</v>
       </c>
       <c r="P81" s="4">
-        <f>MIN(I81:M81)</f>
+        <f t="shared" si="10"/>
         <v>0.42849275469779902</v>
       </c>
       <c r="Q81" s="4">
-        <f>AVERAGE(I81:M81)</f>
+        <f t="shared" si="11"/>
         <v>0.44457926750183063</v>
       </c>
     </row>
@@ -5714,19 +5724,19 @@
         <v>0.43715637922286898</v>
       </c>
       <c r="N82" s="4">
-        <f>SUM(E82:H82)</f>
+        <f t="shared" si="8"/>
         <v>-0.14604345819662659</v>
       </c>
       <c r="O82" s="4">
-        <f>ABS(E82)+ABS(F82)+ABS(G82)+ABS(H82)</f>
+        <f t="shared" si="9"/>
         <v>0.2158203442147904</v>
       </c>
       <c r="P82" s="4">
-        <f>MIN(I82:M82)</f>
+        <f t="shared" si="10"/>
         <v>0.40158706903457603</v>
       </c>
       <c r="Q82" s="4">
-        <f>AVERAGE(I82:M82)</f>
+        <f t="shared" si="11"/>
         <v>0.44466363191604563</v>
       </c>
     </row>
@@ -5771,19 +5781,19 @@
         <v>0.46310457587242099</v>
       </c>
       <c r="N83" s="4">
-        <f>SUM(E83:H83)</f>
+        <f t="shared" si="8"/>
         <v>-5.4284647855453505E-2</v>
       </c>
       <c r="O83" s="4">
-        <f>ABS(E83)+ABS(F83)+ABS(G83)+ABS(H83)</f>
+        <f t="shared" si="9"/>
         <v>0.2936644641580855</v>
       </c>
       <c r="P83" s="4">
-        <f>MIN(I83:M83)</f>
+        <f t="shared" si="10"/>
         <v>0.42214292287826499</v>
       </c>
       <c r="Q83" s="4">
-        <f>AVERAGE(I83:M83)</f>
+        <f t="shared" si="11"/>
         <v>0.44503508806228603</v>
       </c>
     </row>
@@ -5828,19 +5838,19 @@
         <v>0.38057798147201499</v>
       </c>
       <c r="N84" s="4">
-        <f>SUM(E84:H84)</f>
+        <f t="shared" si="8"/>
         <v>-5.9397702710270422E-2</v>
       </c>
       <c r="O84" s="4">
-        <f>ABS(E84)+ABS(F84)+ABS(G84)+ABS(H84)</f>
+        <f t="shared" si="9"/>
         <v>0.51356408431052758</v>
       </c>
       <c r="P84" s="4">
-        <f>MIN(I84:M84)</f>
+        <f t="shared" si="10"/>
         <v>0.38057798147201499</v>
       </c>
       <c r="Q84" s="4">
-        <f>AVERAGE(I84:M84)</f>
+        <f t="shared" si="11"/>
         <v>0.44709378480911199</v>
       </c>
     </row>
@@ -5885,19 +5895,19 @@
         <v>0.440209120512008</v>
       </c>
       <c r="N85" s="4">
-        <f>SUM(E85:H85)</f>
+        <f t="shared" si="8"/>
         <v>-0.20295942374301568</v>
       </c>
       <c r="O85" s="4">
-        <f>ABS(E85)+ABS(F85)+ABS(G85)+ABS(H85)</f>
+        <f t="shared" si="9"/>
         <v>0.29326889157315233</v>
       </c>
       <c r="P85" s="4">
-        <f>MIN(I85:M85)</f>
+        <f t="shared" si="10"/>
         <v>0.41821822524070701</v>
       </c>
       <c r="Q85" s="4">
-        <f>AVERAGE(I85:M85)</f>
+        <f t="shared" si="11"/>
         <v>0.44731934666633533</v>
       </c>
     </row>
@@ -5942,19 +5952,19 @@
         <v>0.416818886995315</v>
       </c>
       <c r="N86" s="4">
-        <f>SUM(E86:H86)</f>
+        <f t="shared" si="8"/>
         <v>-0.5024734587909695</v>
       </c>
       <c r="O86" s="4">
-        <f>ABS(E86)+ABS(F86)+ABS(G86)+ABS(H86)</f>
+        <f t="shared" si="9"/>
         <v>0.53084355542524619</v>
       </c>
       <c r="P86" s="4">
-        <f>MIN(I86:M86)</f>
+        <f t="shared" si="10"/>
         <v>0.36833637952804499</v>
       </c>
       <c r="Q86" s="4">
-        <f>AVERAGE(I86:M86)</f>
+        <f t="shared" si="11"/>
         <v>0.44783666729927019</v>
       </c>
     </row>
@@ -5999,19 +6009,19 @@
         <v>0.42394933104514998</v>
       </c>
       <c r="N87" s="4">
-        <f>SUM(E87:H87)</f>
+        <f t="shared" si="8"/>
         <v>0.1096214564702057</v>
       </c>
       <c r="O87" s="4">
-        <f>ABS(E87)+ABS(F87)+ABS(G87)+ABS(H87)</f>
+        <f t="shared" si="9"/>
         <v>0.2282530906384149</v>
       </c>
       <c r="P87" s="4">
-        <f>MIN(I87:M87)</f>
+        <f t="shared" si="10"/>
         <v>0.41993454098701399</v>
       </c>
       <c r="Q87" s="4">
-        <f>AVERAGE(I87:M87)</f>
+        <f t="shared" si="11"/>
         <v>0.45070663094520513</v>
       </c>
     </row>
@@ -6056,19 +6066,19 @@
         <v>0.46203044056892301</v>
       </c>
       <c r="N88" s="4">
-        <f>SUM(E88:H88)</f>
+        <f t="shared" si="8"/>
         <v>0.16007297861899389</v>
       </c>
       <c r="O88" s="4">
-        <f>ABS(E88)+ABS(F88)+ABS(G88)+ABS(H88)</f>
+        <f t="shared" si="9"/>
         <v>0.36122100266472712</v>
       </c>
       <c r="P88" s="4">
-        <f>MIN(I88:M88)</f>
+        <f t="shared" si="10"/>
         <v>0.43681383132934498</v>
       </c>
       <c r="Q88" s="4">
-        <f>AVERAGE(I88:M88)</f>
+        <f t="shared" si="11"/>
         <v>0.45131358504295305</v>
       </c>
     </row>
@@ -6113,19 +6123,19 @@
         <v>0.47772943973541199</v>
       </c>
       <c r="N89" s="4">
-        <f>SUM(E89:H89)</f>
+        <f t="shared" si="8"/>
         <v>0.10021041144023203</v>
       </c>
       <c r="O89" s="4">
-        <f>ABS(E89)+ABS(F89)+ABS(G89)+ABS(H89)</f>
+        <f t="shared" si="9"/>
         <v>0.23548619897886941</v>
       </c>
       <c r="P89" s="4">
-        <f>MIN(I89:M89)</f>
+        <f t="shared" si="10"/>
         <v>0.41901963949203402</v>
       </c>
       <c r="Q89" s="4">
-        <f>AVERAGE(I89:M89)</f>
+        <f t="shared" si="11"/>
         <v>0.45416235923767018</v>
       </c>
     </row>
@@ -6170,19 +6180,19 @@
         <v>0.39155766367912198</v>
       </c>
       <c r="N90" s="4">
-        <f>SUM(E90:H90)</f>
+        <f t="shared" si="8"/>
         <v>-1.0313947040051265E-3</v>
       </c>
       <c r="O90" s="4">
-        <f>ABS(E90)+ABS(F90)+ABS(G90)+ABS(H90)</f>
+        <f t="shared" si="9"/>
         <v>0.12283695936439493</v>
       </c>
       <c r="P90" s="4">
-        <f>MIN(I90:M90)</f>
+        <f t="shared" si="10"/>
         <v>0.39155766367912198</v>
       </c>
       <c r="Q90" s="4">
-        <f>AVERAGE(I90:M90)</f>
+        <f t="shared" si="11"/>
         <v>0.45455771684646534</v>
       </c>
     </row>
@@ -6227,19 +6237,19 @@
         <v>0.43889319896697998</v>
       </c>
       <c r="N91" s="4">
-        <f>SUM(E91:H91)</f>
+        <f t="shared" si="8"/>
         <v>0.16383725549932909</v>
       </c>
       <c r="O91" s="4">
-        <f>ABS(E91)+ABS(F91)+ABS(G91)+ABS(H91)</f>
+        <f t="shared" si="9"/>
         <v>0.44535621716935309</v>
       </c>
       <c r="P91" s="4">
-        <f>MIN(I91:M91)</f>
+        <f t="shared" si="10"/>
         <v>0.40978124737739502</v>
       </c>
       <c r="Q91" s="4">
-        <f>AVERAGE(I91:M91)</f>
+        <f t="shared" si="11"/>
         <v>0.45573574900627084</v>
       </c>
     </row>
@@ -6284,19 +6294,19 @@
         <v>0.46188646554946899</v>
       </c>
       <c r="N92" s="4">
-        <f>SUM(E92:H92)</f>
+        <f t="shared" si="8"/>
         <v>0.12289141051935853</v>
       </c>
       <c r="O92" s="4">
-        <f>ABS(E92)+ABS(F92)+ABS(G92)+ABS(H92)</f>
+        <f t="shared" si="9"/>
         <v>0.24152304468756775</v>
       </c>
       <c r="P92" s="4">
-        <f>MIN(I92:M92)</f>
+        <f t="shared" si="10"/>
         <v>0.40626844763755798</v>
       </c>
       <c r="Q92" s="4">
-        <f>AVERAGE(I92:M92)</f>
+        <f t="shared" si="11"/>
         <v>0.45696659088134739</v>
       </c>
     </row>
@@ -6341,19 +6351,19 @@
         <v>0.48798784613609297</v>
       </c>
       <c r="N93" s="4">
-        <f>SUM(E93:H93)</f>
+        <f t="shared" si="8"/>
         <v>2.166409019602869E-3</v>
       </c>
       <c r="O93" s="4">
-        <f>ABS(E93)+ABS(F93)+ABS(G93)+ABS(H93)</f>
+        <f t="shared" si="9"/>
         <v>8.5733082365358329E-2</v>
       </c>
       <c r="P93" s="4">
-        <f>MIN(I93:M93)</f>
+        <f t="shared" si="10"/>
         <v>0.41116282343864402</v>
       </c>
       <c r="Q93" s="4">
-        <f>AVERAGE(I93:M93)</f>
+        <f t="shared" si="11"/>
         <v>0.45734180808067276</v>
       </c>
     </row>
@@ -6398,19 +6408,19 @@
         <v>0.51421242952346802</v>
       </c>
       <c r="N94" s="4">
-        <f>SUM(E94:H94)</f>
+        <f t="shared" si="8"/>
         <v>-9.1896880323957569E-2</v>
       </c>
       <c r="O94" s="4">
-        <f>ABS(E94)+ABS(F94)+ABS(G94)+ABS(H94)</f>
+        <f t="shared" si="9"/>
         <v>0.52010314173511352</v>
       </c>
       <c r="P94" s="4">
-        <f>MIN(I94:M94)</f>
+        <f t="shared" si="10"/>
         <v>0.37083414196968001</v>
       </c>
       <c r="Q94" s="4">
-        <f>AVERAGE(I94:M94)</f>
+        <f t="shared" si="11"/>
         <v>0.45743654966354336</v>
       </c>
     </row>
@@ -6455,19 +6465,19 @@
         <v>0.45993366837501498</v>
       </c>
       <c r="N95" s="4">
-        <f>SUM(E95:H95)</f>
+        <f t="shared" si="8"/>
         <v>-1.0221488889723351E-2</v>
       </c>
       <c r="O95" s="4">
-        <f>ABS(E95)+ABS(F95)+ABS(G95)+ABS(H95)</f>
+        <f t="shared" si="9"/>
         <v>0.27831914998018015</v>
       </c>
       <c r="P95" s="4">
-        <f>MIN(I95:M95)</f>
+        <f t="shared" si="10"/>
         <v>0.43423637747764499</v>
       </c>
       <c r="Q95" s="4">
-        <f>AVERAGE(I95:M95)</f>
+        <f t="shared" si="11"/>
         <v>0.45856043100357019</v>
       </c>
     </row>
@@ -6512,19 +6522,19 @@
         <v>0.398836940526962</v>
       </c>
       <c r="N96" s="4">
-        <f>SUM(E96:H96)</f>
+        <f t="shared" si="8"/>
         <v>3.3818918436911344E-2</v>
       </c>
       <c r="O96" s="4">
-        <f>ABS(E96)+ABS(F96)+ABS(G96)+ABS(H96)</f>
+        <f t="shared" si="9"/>
         <v>0.3943873429742446</v>
       </c>
       <c r="P96" s="4">
-        <f>MIN(I96:M96)</f>
+        <f t="shared" si="10"/>
         <v>0.398836940526962</v>
       </c>
       <c r="Q96" s="4">
-        <f>AVERAGE(I96:M96)</f>
+        <f t="shared" si="11"/>
         <v>0.45880672931671096</v>
       </c>
     </row>
@@ -6569,19 +6579,19 @@
         <v>0.42428281903266901</v>
       </c>
       <c r="N97" s="4">
-        <f>SUM(E97:H97)</f>
+        <f t="shared" si="8"/>
         <v>0.15366186379684038</v>
       </c>
       <c r="O97" s="4">
-        <f>ABS(E97)+ABS(F97)+ABS(G97)+ABS(H97)</f>
+        <f t="shared" si="9"/>
         <v>0.34432128363247938</v>
       </c>
       <c r="P97" s="4">
-        <f>MIN(I97:M97)</f>
+        <f t="shared" si="10"/>
         <v>0.42428281903266901</v>
       </c>
       <c r="Q97" s="4">
-        <f>AVERAGE(I97:M97)</f>
+        <f t="shared" si="11"/>
         <v>0.46472534537315341</v>
       </c>
     </row>
@@ -6626,19 +6636,19 @@
         <v>0.44889783859252902</v>
       </c>
       <c r="N98" s="4">
-        <f>SUM(E98:H98)</f>
+        <f t="shared" ref="N98:N106" si="12">SUM(E98:H98)</f>
         <v>2.0173066668267525E-2</v>
       </c>
       <c r="O98" s="4">
-        <f>ABS(E98)+ABS(F98)+ABS(G98)+ABS(H98)</f>
+        <f t="shared" ref="O98:O106" si="13">ABS(E98)+ABS(F98)+ABS(G98)+ABS(H98)</f>
         <v>7.832166413772107E-2</v>
       </c>
       <c r="P98" s="4">
-        <f>MIN(I98:M98)</f>
+        <f t="shared" ref="P98:P106" si="14">MIN(I98:M98)</f>
         <v>0.38368150591850197</v>
       </c>
       <c r="Q98" s="4">
-        <f>AVERAGE(I98:M98)</f>
+        <f t="shared" ref="Q98:Q106" si="15">AVERAGE(I98:M98)</f>
         <v>0.46828265786170897</v>
       </c>
     </row>
@@ -6683,19 +6693,19 @@
         <v>0.389545708894729</v>
       </c>
       <c r="N99" s="4">
-        <f>SUM(E99:H99)</f>
+        <f t="shared" si="12"/>
         <v>-0.20672370062335088</v>
       </c>
       <c r="O99" s="4">
-        <f>ABS(E99)+ABS(F99)+ABS(G99)+ABS(H99)</f>
+        <f t="shared" si="13"/>
         <v>0.20913367706852631</v>
       </c>
       <c r="P99" s="4">
-        <f>MIN(I99:M99)</f>
+        <f t="shared" si="14"/>
         <v>0.389545708894729</v>
       </c>
       <c r="Q99" s="4">
-        <f>AVERAGE(I99:M99)</f>
+        <f t="shared" si="15"/>
         <v>0.46836296319961496</v>
       </c>
     </row>
@@ -6740,19 +6750,19 @@
         <v>0.468768119812011</v>
       </c>
       <c r="N100" s="4">
-        <f>SUM(E100:H100)</f>
+        <f t="shared" si="12"/>
         <v>-0.22179924136436407</v>
       </c>
       <c r="O100" s="4">
-        <f>ABS(E100)+ABS(F100)+ABS(G100)+ABS(H100)</f>
+        <f t="shared" si="13"/>
         <v>0.22420921780953953</v>
       </c>
       <c r="P100" s="4">
-        <f>MIN(I100:M100)</f>
+        <f t="shared" si="14"/>
         <v>0.40646049380302401</v>
       </c>
       <c r="Q100" s="4">
-        <f>AVERAGE(I100:M100)</f>
+        <f t="shared" si="15"/>
         <v>0.47034347653388914</v>
       </c>
     </row>
@@ -6797,19 +6807,19 @@
         <v>0.47350066900253202</v>
       </c>
       <c r="N101" s="4">
-        <f>SUM(E101:H101)</f>
+        <f t="shared" si="12"/>
         <v>-0.21571886928347211</v>
       </c>
       <c r="O101" s="4">
-        <f>ABS(E101)+ABS(F101)+ABS(G101)+ABS(H101)</f>
+        <f t="shared" si="13"/>
         <v>0.33752443394386189</v>
       </c>
       <c r="P101" s="4">
-        <f>MIN(I101:M101)</f>
+        <f t="shared" si="14"/>
         <v>0.37811031937599099</v>
       </c>
       <c r="Q101" s="4">
-        <f>AVERAGE(I101:M101)</f>
+        <f t="shared" si="15"/>
         <v>0.47049891948699879</v>
       </c>
     </row>
@@ -6854,19 +6864,19 @@
         <v>0.51005375385284402</v>
       </c>
       <c r="N102" s="4">
-        <f>SUM(E102:H102)</f>
+        <f t="shared" si="12"/>
         <v>-0.1547078841154863</v>
       </c>
       <c r="O102" s="4">
-        <f>ABS(E102)+ABS(F102)+ABS(G102)+ABS(H102)</f>
+        <f t="shared" si="13"/>
         <v>0.24779560398805128</v>
       </c>
       <c r="P102" s="4">
-        <f>MIN(I102:M102)</f>
+        <f t="shared" si="14"/>
         <v>0.40429642796516402</v>
       </c>
       <c r="Q102" s="4">
-        <f>AVERAGE(I102:M102)</f>
+        <f t="shared" si="15"/>
         <v>0.47108370065689054</v>
       </c>
     </row>
@@ -6911,19 +6921,19 @@
         <v>0.49253353476524298</v>
       </c>
       <c r="N103" s="4">
-        <f>SUM(E103:H103)</f>
+        <f t="shared" si="12"/>
         <v>-0.11221551012396126</v>
       </c>
       <c r="O103" s="4">
-        <f>ABS(E103)+ABS(F103)+ABS(G103)+ABS(H103)</f>
+        <f t="shared" si="13"/>
         <v>0.16930345154606272</v>
       </c>
       <c r="P103" s="4">
-        <f>MIN(I103:M103)</f>
+        <f t="shared" si="14"/>
         <v>0.41233810782432501</v>
       </c>
       <c r="Q103" s="4">
-        <f>AVERAGE(I103:M103)</f>
+        <f t="shared" si="15"/>
         <v>0.47175139188766418</v>
       </c>
     </row>
@@ -6968,19 +6978,19 @@
         <v>0.49304455518722501</v>
       </c>
       <c r="N104" s="4">
-        <f>SUM(E104:H104)</f>
+        <f t="shared" si="12"/>
         <v>-0.24148522367174918</v>
       </c>
       <c r="O104" s="4">
-        <f>ABS(E104)+ABS(F104)+ABS(G104)+ABS(H104)</f>
+        <f t="shared" si="13"/>
         <v>0.24389520011692464</v>
       </c>
       <c r="P104" s="4">
-        <f>MIN(I104:M104)</f>
+        <f t="shared" si="14"/>
         <v>0.413931995630264</v>
       </c>
       <c r="Q104" s="4">
-        <f>AVERAGE(I104:M104)</f>
+        <f t="shared" si="15"/>
         <v>0.47259858250617937</v>
       </c>
     </row>
@@ -7025,19 +7035,19 @@
         <v>0.48915681242942799</v>
       </c>
       <c r="N105" s="4">
-        <f>SUM(E105:H105)</f>
+        <f t="shared" si="12"/>
         <v>-8.5492968778916267E-2</v>
       </c>
       <c r="O105" s="4">
-        <f>ABS(E105)+ABS(F105)+ABS(G105)+ABS(H105)</f>
+        <f t="shared" si="13"/>
         <v>0.20729853343930607</v>
       </c>
       <c r="P105" s="4">
-        <f>MIN(I105:M105)</f>
+        <f t="shared" si="14"/>
         <v>0.446261376142501</v>
       </c>
       <c r="Q105" s="4">
-        <f>AVERAGE(I105:M105)</f>
+        <f t="shared" si="15"/>
         <v>0.48278148770332285</v>
       </c>
     </row>
@@ -7082,24 +7092,24 @@
         <v>0.41099661588668801</v>
       </c>
       <c r="N106" s="4">
-        <f>SUM(E106:H106)</f>
+        <f t="shared" si="12"/>
         <v>-0.11197884055085108</v>
       </c>
       <c r="O106" s="4">
-        <f>ABS(E106)+ABS(F106)+ABS(G106)+ABS(H106)</f>
+        <f t="shared" si="13"/>
         <v>0.11197884055085108</v>
       </c>
       <c r="P106" s="4">
-        <f>MIN(I106:M106)</f>
+        <f t="shared" si="14"/>
         <v>0.36364778876304599</v>
       </c>
       <c r="Q106" s="4">
-        <f>AVERAGE(I106:M106)</f>
+        <f t="shared" si="15"/>
         <v>0.55650966763496368</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q106">
+  <autoFilter ref="A1:Q106" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q106">
       <sortCondition ref="Q1:Q106"/>
     </sortState>
@@ -7147,5 +7157,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N2:Q106" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>